--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD4012-0D9D-414E-A11D-607C04136DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FCBEC0-ACFF-FA47-A01C-324D5C03D0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="500" windowWidth="38600" windowHeight="30640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="500" windowWidth="66840" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -294,9 +294,6 @@
     <t>DecimalValue</t>
   </si>
   <si>
-    <t>hlist: specie</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>hlist: role</t>
-  </si>
-  <si>
     <t>isPartOf</t>
   </si>
   <si>
@@ -354,18 +348,12 @@
     <t>:Audio</t>
   </si>
   <si>
-    <t>:Character</t>
-  </si>
-  <si>
     <t>:Video</t>
   </si>
   <si>
     <t>linkToFairytale</t>
   </si>
   <si>
-    <t>Fairytale</t>
-  </si>
-  <si>
     <t>:AnimalCharacter</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>Geonames</t>
   </si>
   <si>
-    <t>hasLocationName</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -393,9 +378,6 @@
     <t>License</t>
   </si>
   <si>
-    <t>hlist: license</t>
-  </si>
-  <si>
     <t>hasDescription</t>
   </si>
   <si>
@@ -573,7 +555,82 @@
     <t>Chapter Number</t>
   </si>
   <si>
+    <t>Character Type</t>
+  </si>
+  <si>
     <t>Departement</t>
+  </si>
+  <si>
+    <t>linkToFlyerID</t>
+  </si>
+  <si>
+    <t>Link to Flyer</t>
+  </si>
+  <si>
+    <t>Link to Fairytale</t>
+  </si>
+  <si>
+    <t>:Flyer</t>
+  </si>
+  <si>
+    <t>:Location</t>
+  </si>
+  <si>
+    <t>:Butler</t>
+  </si>
+  <si>
+    <t>:AnimalFriend</t>
+  </si>
+  <si>
+    <t>:AliceCharacter</t>
+  </si>
+  <si>
+    <t>hlist: Gender</t>
+  </si>
+  <si>
+    <t>hlist: License</t>
+  </si>
+  <si>
+    <t>hlist: Role</t>
+  </si>
+  <si>
+    <t>hlist: Specie</t>
+  </si>
+  <si>
+    <t>hasSpecieList</t>
+  </si>
+  <si>
+    <t>BooleanValue</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>hasRoleList</t>
+  </si>
+  <si>
+    <t>hasShortName</t>
+  </si>
+  <si>
+    <t>hasEducationGradeList</t>
+  </si>
+  <si>
+    <t>hasDepartementList</t>
+  </si>
+  <si>
+    <t>hlist: Departement</t>
+  </si>
+  <si>
+    <t>hlist: Education Grade</t>
+  </si>
+  <si>
+    <t>DateValue</t>
+  </si>
+  <si>
+    <t>hasCharacterTypeList</t>
+  </si>
+  <si>
+    <t>hlist: Character Type</t>
   </si>
 </sst>
 </file>
@@ -875,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q943"/>
+  <dimension ref="A1:Q942"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -952,10 +1009,10 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -966,111 +1023,181 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="O2" s="1"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>91</v>
+      <c r="A3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>17</v>
@@ -1079,63 +1206,75 @@
         <v>21</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>52</v>
+      <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
+      <c r="A14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1143,72 +1282,92 @@
       <c r="N15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
@@ -1224,18 +1383,28 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
@@ -1247,23 +1416,23 @@
         <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>21</v>
@@ -1273,18 +1442,28 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
@@ -1296,36 +1475,36 @@
         <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>16</v>
@@ -1341,178 +1520,244 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>63</v>
+      <c r="A37" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="N40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2415,13 +2660,7 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q46">
-      <sortCondition ref="A1:A46"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="property-name" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" location="property-labels" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -2439,9 +2678,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65BE4C-0F98-3847-91D8-84511E84E254}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0"/>
+    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection sqref="A1:A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2450,192 +2691,197 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A37">
-    <sortCondition ref="A1:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A39">
+    <sortCondition ref="A1:A39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FCBEC0-ACFF-FA47-A01C-324D5C03D0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1ADCC0-A8B6-0349-B27B-87DDA036E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="500" windowWidth="66840" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="38780" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
@@ -214,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -399,9 +398,6 @@
     <t>linkToAliceCharacterID</t>
   </si>
   <si>
-    <t>hasRole</t>
-  </si>
-  <si>
     <t>hasQuote</t>
   </si>
   <si>
@@ -411,18 +407,9 @@
     <t>hasFavoriteCake</t>
   </si>
   <si>
-    <t>hasEducationGrade</t>
-  </si>
-  <si>
-    <t>hasDepartement</t>
-  </si>
-  <si>
     <t>linkToAnimalFriendID</t>
   </si>
   <si>
-    <t>hasShortname</t>
-  </si>
-  <si>
     <t>linkToButlerID</t>
   </si>
   <si>
@@ -438,9 +425,6 @@
     <t>hasWeight</t>
   </si>
   <si>
-    <t>hasSpeiceList</t>
-  </si>
-  <si>
     <t>hasGenderList</t>
   </si>
   <si>
@@ -453,9 +437,6 @@
     <t>hasID</t>
   </si>
   <si>
-    <t>hasCharacterType</t>
-  </si>
-  <si>
     <t>linkToLocationID</t>
   </si>
   <si>
@@ -631,6 +612,18 @@
   </si>
   <si>
     <t>hlist: Character Type</t>
+  </si>
+  <si>
+    <t>hasValue, schema:birthDate</t>
+  </si>
+  <si>
+    <t>hasValue, schema:pagination</t>
+  </si>
+  <si>
+    <t>hasValue, schema:character</t>
+  </si>
+  <si>
+    <t>hasValue, schema:copyrightHolder</t>
   </si>
 </sst>
 </file>
@@ -936,13 +929,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" hidden="1" customWidth="1"/>
@@ -1009,10 +1002,10 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1024,13 +1017,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
@@ -1040,10 +1033,10 @@
         <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>35</v>
@@ -1055,13 +1048,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -1070,18 +1063,18 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>17</v>
@@ -1094,28 +1087,28 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
@@ -1127,7 +1120,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -1152,10 +1145,10 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1167,16 +1160,16 @@
         <v>20</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1191,10 +1184,10 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>16</v>
@@ -1228,10 +1221,10 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>16</v>
@@ -1243,13 +1236,13 @@
         <v>20</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>48</v>
@@ -1268,7 +1261,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
@@ -1306,7 +1299,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>53</v>
@@ -1321,14 +1314,14 @@
         <v>20</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>51</v>
@@ -1346,28 +1339,28 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
@@ -1383,10 +1376,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -1401,7 +1394,7 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -1416,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1442,10 +1435,10 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
@@ -1460,10 +1453,10 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
@@ -1475,17 +1468,17 @@
         <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
@@ -1501,7 +1494,7 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -1520,10 +1513,10 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>16</v>
@@ -1538,19 +1531,19 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P29" s="3"/>
     </row>
@@ -1559,7 +1552,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>39</v>
@@ -1578,13 +1571,13 @@
         <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>41</v>
@@ -1596,7 +1589,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>42</v>
@@ -1612,16 +1605,16 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>41</v>
@@ -1631,10 +1624,10 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>42</v>
@@ -1650,16 +1643,16 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>41</v>
@@ -1671,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>42</v>
@@ -1687,16 +1680,16 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>41</v>
@@ -1707,7 +1700,7 @@
         <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>42</v>
@@ -1723,16 +1716,16 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>41</v>
@@ -1741,10 +1734,10 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>42</v>
@@ -2674,215 +2667,4 @@
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId8"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65BE4C-0F98-3847-91D8-84511E84E254}">
-  <dimension ref="A1:A38"/>
-  <sheetViews>
-    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection sqref="A1:A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A39">
-    <sortCondition ref="A1:A39"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1ADCC0-A8B6-0349-B27B-87DDA036E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61808A78-3E8C-DF4C-9E8F-99EA7F845607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="500" windowWidth="38780" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Page Number</t>
   </si>
   <si>
-    <t>seqnum</t>
-  </si>
-  <si>
     <t>IntValue</t>
   </si>
   <si>
@@ -624,6 +621,30 @@
   </si>
   <si>
     <t>hasValue, schema:copyrightHolder</t>
+  </si>
+  <si>
+    <t>hasValue, schema:weight</t>
+  </si>
+  <si>
+    <t>hasValuem schema:location</t>
+  </si>
+  <si>
+    <t>hasValue, schema:gender</t>
+  </si>
+  <si>
+    <t>hasValue, schema:license</t>
+  </si>
+  <si>
+    <t>hasValue, schema:identifier</t>
+  </si>
+  <si>
+    <t>isPartOf, schema:isPartOf</t>
+  </si>
+  <si>
+    <t>seqnum, schema:numberOfPages</t>
+  </si>
+  <si>
+    <t>hasValue, schema:description</t>
   </si>
 </sst>
 </file>
@@ -927,9 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q942"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1002,10 +1023,10 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1017,29 +1038,29 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>21</v>
@@ -1048,13 +1069,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -1063,18 +1084,18 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>17</v>
@@ -1087,28 +1108,28 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
@@ -1120,19 +1141,19 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>17</v>
@@ -1145,10 +1166,10 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1160,16 +1181,16 @@
         <v>20</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1184,10 +1205,10 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>16</v>
@@ -1202,7 +1223,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
@@ -1221,13 +1242,13 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>19</v>
@@ -1236,38 +1257,38 @@
         <v>20</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1280,7 +1301,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -1299,13 +1320,13 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>19</v>
@@ -1314,17 +1335,17 @@
         <v>20</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
@@ -1339,28 +1360,28 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
@@ -1376,10 +1397,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -1394,10 +1415,10 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
@@ -1409,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1422,10 +1443,10 @@
         <v>33</v>
       </c>
       <c r="L23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>21</v>
@@ -1435,10 +1456,10 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
@@ -1453,10 +1474,10 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
@@ -1468,39 +1489,39 @@
         <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>25</v>
@@ -1513,240 +1534,240 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="M28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="L37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61808A78-3E8C-DF4C-9E8F-99EA7F845607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304BA1A2-8042-4948-8C91-A15AE4B4F78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="38780" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="35120" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304BA1A2-8042-4948-8C91-A15AE4B4F78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEDF6DD-01F1-0947-8723-FE5630CB7CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="35120" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="59460" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -120,6 +121,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -137,6 +139,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -155,6 +158,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -174,6 +178,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -192,6 +197,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -213,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="251">
   <si>
     <t>name</t>
   </si>
@@ -542,9 +548,6 @@
     <t>linkToFlyerID</t>
   </si>
   <si>
-    <t>Link to Flyer</t>
-  </si>
-  <si>
     <t>Link to Fairytale</t>
   </si>
   <si>
@@ -645,17 +648,348 @@
   </si>
   <si>
     <t>hasValue, schema:description</t>
+  </si>
+  <si>
+    <t>Anniversaire</t>
+  </si>
+  <si>
+    <t>Numéro de chapitre</t>
+  </si>
+  <si>
+    <t>Type de personnage</t>
+  </si>
+  <si>
+    <t>Droits d'auteur</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>Département</t>
+  </si>
+  <si>
+    <t>Description de l'article</t>
+  </si>
+  <si>
+    <t>Niveau d'éducation</t>
+  </si>
+  <si>
+    <t>Gâteau préféré</t>
+  </si>
+  <si>
+    <t>Nom du fichier</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Nom de famille</t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>Animal de compagnie</t>
+  </si>
+  <si>
+    <t>Couleur de l'animal</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>Numéro de page</t>
+  </si>
+  <si>
+    <t>Nom court</t>
+  </si>
+  <si>
+    <t>Espèce</t>
+  </si>
+  <si>
+    <t>Horodatage</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>Lieu du Pays des Merveilles</t>
+  </si>
+  <si>
+    <t>Partie de</t>
+  </si>
+  <si>
+    <t>Lien vers le personnage d'Alice</t>
+  </si>
+  <si>
+    <t>Lien vers le personnage animal</t>
+  </si>
+  <si>
+    <t>Lien vers l'ami animal</t>
+  </si>
+  <si>
+    <t>Lien vers Audio</t>
+  </si>
+  <si>
+    <t>Lien vers majordome</t>
+  </si>
+  <si>
+    <t>Lien vers le conte de fées</t>
+  </si>
+  <si>
+    <t>Lien vers la fiche d'information</t>
+  </si>
+  <si>
+    <t>Lien vers l'image</t>
+  </si>
+  <si>
+    <t>Lien vers le lieu</t>
+  </si>
+  <si>
+    <t>Link to Information Sheet</t>
+  </si>
+  <si>
+    <t>Lien vers la vidéo</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Compleanno</t>
+  </si>
+  <si>
+    <t>Numero del capitolo</t>
+  </si>
+  <si>
+    <t>Tipo di personaggio</t>
+  </si>
+  <si>
+    <t>Diritti dell'autore</t>
+  </si>
+  <si>
+    <t>Data di nascita</t>
+  </si>
+  <si>
+    <t>Dipartimento</t>
+  </si>
+  <si>
+    <t>Descrizione dell'articolo</t>
+  </si>
+  <si>
+    <t>Livello di istruzione</t>
+  </si>
+  <si>
+    <t>Torta preferita</t>
+  </si>
+  <si>
+    <t>Nome del file</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Genere</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>Licenza</t>
+  </si>
+  <si>
+    <t>Animale domestico</t>
+  </si>
+  <si>
+    <t>Colore dell'animale</t>
+  </si>
+  <si>
+    <t>Citazione</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>Numero di pagina</t>
+  </si>
+  <si>
+    <t>Nome breve</t>
+  </si>
+  <si>
+    <t>Data e ora</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Posizione nel paese delle meraviglie</t>
+  </si>
+  <si>
+    <t>Parte di</t>
+  </si>
+  <si>
+    <t>Collegamento al personaggio di Alice</t>
+  </si>
+  <si>
+    <t>Collegamento al personaggio animale</t>
+  </si>
+  <si>
+    <t>Collegamento all'amico animale</t>
+  </si>
+  <si>
+    <t>Collegamento all'audio</t>
+  </si>
+  <si>
+    <t>Collegamento al maggiordomo</t>
+  </si>
+  <si>
+    <t>Collegamento alla fiaba</t>
+  </si>
+  <si>
+    <t>Collegamento alla scheda informativa</t>
+  </si>
+  <si>
+    <t>Collegamento all'immagine</t>
+  </si>
+  <si>
+    <t>Collegamento alla posizione</t>
+  </si>
+  <si>
+    <t>Collegamento al video</t>
+  </si>
+  <si>
+    <t>Stérilisé</t>
+  </si>
+  <si>
+    <t>Sterilizzato</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>Kapitel Nummer</t>
+  </si>
+  <si>
+    <t>Zeichen-Typ</t>
+  </si>
+  <si>
+    <t>Urheberrecht</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Bildungsgrad</t>
+  </si>
+  <si>
+    <t>Lieblingskuchen</t>
+  </si>
+  <si>
+    <t>Name der Datei</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Lizenz</t>
+  </si>
+  <si>
+    <t>Haustier</t>
+  </si>
+  <si>
+    <t>Farbe des Tieres</t>
+  </si>
+  <si>
+    <t>Angebot</t>
+  </si>
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>Seitenzahl</t>
+  </si>
+  <si>
+    <t>Kurzer Name</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Zeitstempel</t>
+  </si>
+  <si>
+    <t>Gewicht</t>
+  </si>
+  <si>
+    <t>Wunderland Standort</t>
+  </si>
+  <si>
+    <t>Kastriert</t>
+  </si>
+  <si>
+    <t>Teil von</t>
+  </si>
+  <si>
+    <t>Link zu Alice Charakter</t>
+  </si>
+  <si>
+    <t>Link zum Tiercharakter</t>
+  </si>
+  <si>
+    <t>Link zum Tierfreund</t>
+  </si>
+  <si>
+    <t>Link zu Audio</t>
+  </si>
+  <si>
+    <t>Link zu Butler</t>
+  </si>
+  <si>
+    <t>Link zum Märchen</t>
+  </si>
+  <si>
+    <t>Link zum Bild</t>
+  </si>
+  <si>
+    <t>Link zum Standort</t>
+  </si>
+  <si>
+    <t>Link zum Video</t>
+  </si>
+  <si>
+    <t>Link zum Infoblatt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,17 +1054,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,21 +1280,21 @@
   <dimension ref="A1:Q942"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="12" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="1.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="1.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.1640625" customWidth="1"/>
     <col min="13" max="13" width="29.1640625" customWidth="1"/>
@@ -975,7 +1306,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1028,9 +1359,15 @@
       <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
@@ -1038,10 +1375,10 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>82</v>
@@ -1056,8 +1393,17 @@
       <c r="B3" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>34</v>
@@ -1069,13 +1415,22 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
       <c r="L4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -1084,18 +1439,27 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
       <c r="L5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>17</v>
@@ -1107,17 +1471,26 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>82</v>
@@ -1125,12 +1498,21 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>126</v>
+      <c r="A7" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1141,19 +1523,28 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
       <c r="L8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>17</v>
@@ -1165,12 +1556,21 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>125</v>
+      <c r="A9" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>187</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1181,17 +1581,26 @@
         <v>20</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1204,12 +1613,21 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>189</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1222,12 +1640,21 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>190</v>
+      </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1241,14 +1668,23 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
       <c r="L13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>19</v>
@@ -1257,17 +1693,26 @@
         <v>20</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1281,14 +1726,23 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
       <c r="L15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1296,16 +1750,25 @@
       <c r="N15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
+      </c>
       <c r="L16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1319,14 +1782,23 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
       <c r="L17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>19</v>
@@ -1335,18 +1807,27 @@
         <v>20</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1356,33 +1837,51 @@
       <c r="N18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="9"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
       <c r="L19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="C20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>195</v>
+      </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1396,12 +1895,21 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1414,12 +1922,21 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>123</v>
+      <c r="A22" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1430,20 +1947,29 @@
         <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
       <c r="L23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>34</v>
@@ -1455,12 +1981,21 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>124</v>
+      <c r="A24" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1473,12 +2008,21 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>120</v>
+      <c r="A25" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1489,18 +2033,27 @@
         <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1514,14 +2067,23 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
       <c r="L27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>25</v>
@@ -1533,14 +2095,23 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>202</v>
+      </c>
       <c r="L28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>48</v>
@@ -1548,35 +2119,53 @@
       <c r="N28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P28" s="9"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
       <c r="L30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>39</v>
@@ -1588,17 +2177,26 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>204</v>
+      </c>
       <c r="L31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>40</v>
@@ -1606,12 +2204,21 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="C32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" t="s">
+        <v>205</v>
+      </c>
       <c r="L32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1625,17 +2232,26 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="C33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" t="s">
+        <v>206</v>
+      </c>
       <c r="L33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>40</v>
@@ -1644,12 +2260,21 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
       <c r="L34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1663,17 +2288,26 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
       <c r="L35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>40</v>
@@ -1681,11 +2315,20 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" t="s">
+        <v>209</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>41</v>
@@ -1703,26 +2346,44 @@
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>109</v>
+      <c r="B37" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="C38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
       <c r="L38" s="3" t="s">
         <v>41</v>
       </c>
@@ -1736,17 +2397,26 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="C39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" t="s">
+        <v>212</v>
+      </c>
       <c r="L39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>40</v>
@@ -1754,11 +2424,20 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s">
+        <v>213</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>41</v>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEDF6DD-01F1-0947-8723-FE5630CB7CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B18812-187F-5144-A5C8-E9D4F3C2377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="59460" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,9 +629,6 @@
     <t>hasValue, schema:weight</t>
   </si>
   <si>
-    <t>hasValuem schema:location</t>
-  </si>
-  <si>
     <t>hasValue, schema:gender</t>
   </si>
   <si>
@@ -972,6 +969,9 @@
   </si>
   <si>
     <t>Link zum Infoblatt</t>
+  </si>
+  <si>
+    <t>hasValue, schema:location</t>
   </si>
 </sst>
 </file>
@@ -1279,9 +1279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q942"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1360,13 +1360,13 @@
         <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1394,13 +1394,13 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>132</v>
@@ -1421,13 +1421,13 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>133</v>
@@ -1450,13 +1450,13 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>134</v>
@@ -1478,13 +1478,13 @@
         <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
@@ -1508,10 +1508,10 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
@@ -1535,16 +1535,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>17</v>
@@ -1563,13 +1563,13 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1593,13 +1593,13 @@
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1620,13 +1620,13 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>16</v>
@@ -1647,13 +1647,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
@@ -1675,16 +1675,16 @@
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>19</v>
@@ -1742,7 +1742,7 @@
         <v>31</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1761,13 +1761,13 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>30</v>
@@ -1789,16 +1789,16 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>19</v>
@@ -1823,10 +1823,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
@@ -1847,13 +1847,13 @@
         <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>16</v>
@@ -1874,13 +1874,13 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
@@ -1902,13 +1902,13 @@
         <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -1929,13 +1929,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
@@ -1960,16 +1960,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>34</v>
@@ -1988,13 +1988,13 @@
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
@@ -2015,10 +2015,10 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
         <v>91</v>
@@ -2046,13 +2046,13 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>135</v>
@@ -2102,16 +2102,16 @@
         <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>136</v>
+        <v>201</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>48</v>
@@ -2129,13 +2129,13 @@
         <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
@@ -2156,16 +2156,16 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>39</v>
@@ -2184,13 +2184,13 @@
         <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>41</v>
@@ -2211,13 +2211,13 @@
         <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>41</v>
@@ -2239,13 +2239,13 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>41</v>
@@ -2267,13 +2267,13 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>41</v>
@@ -2295,13 +2295,13 @@
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>41</v>
@@ -2322,13 +2322,13 @@
         <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>41</v>
@@ -2347,16 +2347,16 @@
         <v>108</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>41</v>
@@ -2376,13 +2376,13 @@
         <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>41</v>
@@ -2404,13 +2404,13 @@
         <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>41</v>
@@ -2431,13 +2431,13 @@
         <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>41</v>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B18812-187F-5144-A5C8-E9D4F3C2377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348E27DC-FD65-9347-BAC1-93B2C7ED4C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34360" yWindow="500" windowWidth="31820" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="250">
   <si>
     <t>name</t>
   </si>
@@ -458,9 +458,6 @@
     <t>hasCopyright</t>
   </si>
   <si>
-    <t>hasLicense</t>
-  </si>
-  <si>
     <t>hasFileName</t>
   </si>
   <si>
@@ -665,9 +662,6 @@
     <t>Département</t>
   </si>
   <si>
-    <t>Description de l'article</t>
-  </si>
-  <si>
     <t>Niveau d'éducation</t>
   </si>
   <si>
@@ -776,9 +770,6 @@
     <t>Dipartimento</t>
   </si>
   <si>
-    <t>Descrizione dell'articolo</t>
-  </si>
-  <si>
     <t>Livello di istruzione</t>
   </si>
   <si>
@@ -972,17 +963,30 @@
   </si>
   <si>
     <t>hasValue, schema:location</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>hasLicenseList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,13 +1058,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,9 +1284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1357,16 +1362,16 @@
         <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1375,13 +1380,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
@@ -1391,19 +1396,19 @@
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>34</v>
@@ -1415,22 +1420,22 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -1439,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1450,16 +1455,16 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>17</v>
@@ -1472,46 +1477,46 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
@@ -1523,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -1535,16 +1540,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" t="s">
-        <v>185</v>
+        <v>217</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>17</v>
@@ -1557,19 +1562,19 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1581,7 +1586,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -1590,16 +1595,16 @@
         <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1614,19 +1619,19 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>16</v>
@@ -1647,13 +1652,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
@@ -1672,19 +1677,19 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>136</v>
+        <v>187</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>19</v>
@@ -1693,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P13" s="3"/>
     </row>
@@ -1742,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1761,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>30</v>
@@ -1782,23 +1787,23 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>79</v>
+      <c r="A17" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>19</v>
@@ -1807,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1823,10 +1828,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
@@ -1844,25 +1849,25 @@
         <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="P19" s="3"/>
     </row>
@@ -1871,16 +1876,16 @@
         <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
@@ -1899,16 +1904,16 @@
         <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -1923,19 +1928,19 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
@@ -1947,7 +1952,7 @@
         <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1960,16 +1965,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>34</v>
@@ -1982,19 +1987,19 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
@@ -2009,19 +2014,19 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
@@ -2033,7 +2038,7 @@
         <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2043,16 +2048,16 @@
         <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
@@ -2074,16 +2079,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>25</v>
@@ -2099,19 +2104,19 @@
         <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>48</v>
@@ -2126,25 +2131,25 @@
         <v>70</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="P29" s="3"/>
     </row>
@@ -2153,19 +2158,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>39</v>
@@ -2181,22 +2186,22 @@
         <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>40</v>
@@ -2208,16 +2213,16 @@
         <v>55</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>41</v>
@@ -2236,22 +2241,22 @@
         <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>40</v>
@@ -2264,16 +2269,16 @@
         <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>41</v>
@@ -2292,22 +2297,22 @@
         <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>40</v>
@@ -2319,16 +2324,16 @@
         <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>41</v>
@@ -2344,25 +2349,25 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>40</v>
@@ -2373,16 +2378,16 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>41</v>
@@ -2401,22 +2406,22 @@
         <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>40</v>
@@ -2428,16 +2433,16 @@
         <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>41</v>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348E27DC-FD65-9347-BAC1-93B2C7ED4C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325A644-3865-C342-8814-FD7A2FEC3DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34360" yWindow="500" windowWidth="31820" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16740" yWindow="500" windowWidth="52420" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="252">
   <si>
     <t>name</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>isPartOf</t>
-  </si>
-  <si>
     <t>:Fairytale</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>hasName</t>
   </si>
   <si>
-    <t>hasWonderlandLocation</t>
-  </si>
-  <si>
     <t>hasTimeStamp</t>
   </si>
   <si>
@@ -969,17 +963,36 @@
   </si>
   <si>
     <t>hasLicenseList</t>
+  </si>
+  <si>
+    <t>isPartOfAnimalCharacterID</t>
+  </si>
+  <si>
+    <t>isPartOfFairytaleID</t>
+  </si>
+  <si>
+    <t>hasWonderlandLocationList</t>
+  </si>
+  <si>
+    <t>hlist: Fairytale Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1058,13 +1071,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1282,16 +1296,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q942"/>
+  <dimension ref="A1:Q943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
@@ -1299,7 +1313,7 @@
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="1.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.1640625" customWidth="1"/>
     <col min="13" max="13" width="29.1640625" customWidth="1"/>
@@ -1359,56 +1373,76 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>34</v>
@@ -1420,22 +1454,34 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -1444,27 +1490,39 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>17</v>
@@ -1477,46 +1535,70 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" t="s">
+        <v>179</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" t="s">
+        <v>180</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
@@ -1528,28 +1610,40 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>17</v>
@@ -1562,19 +1656,31 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" t="s">
+        <v>181</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1586,25 +1692,37 @@
         <v>20</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>182</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1619,19 +1737,31 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>183</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>16</v>
@@ -1646,19 +1776,31 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" t="s">
+        <v>184</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
@@ -1674,22 +1816,34 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>19</v>
@@ -1698,41 +1852,53 @@
         <v>20</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
@@ -1746,8 +1912,20 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
       <c r="L15" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1760,19 +1938,31 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>186</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>30</v>
@@ -1788,22 +1978,34 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>187</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>19</v>
@@ -1812,26 +2014,38 @@
         <v>20</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
@@ -1846,46 +2060,70 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
@@ -1901,19 +2139,31 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -1928,19 +2178,31 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
@@ -1952,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1965,16 +2227,28 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>34</v>
@@ -1987,19 +2261,31 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
@@ -2014,19 +2300,31 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
@@ -2038,26 +2336,38 @@
         <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>230</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
@@ -2073,22 +2383,34 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" t="s">
+        <v>195</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>25</v>
@@ -2100,363 +2422,561 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
+      <c r="A28" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" t="s">
+        <v>196</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>49</v>
+        <v>245</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>233</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>94</v>
+      <c r="A30" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
+        <v>234</v>
+      </c>
+      <c r="I30" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>59</v>
+      <c r="A31" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" t="s">
+        <v>197</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>113</v>
+        <v>136</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" t="s">
+        <v>198</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>199</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" t="s">
+        <v>200</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" t="s">
+        <v>201</v>
       </c>
       <c r="L35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="N35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" t="s">
-        <v>205</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="M36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" t="s">
-        <v>206</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="M37" s="3" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>243</v>
+        <v>105</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E38" t="s">
-        <v>207</v>
+      <c r="H38" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" t="s">
+        <v>204</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" t="s">
+        <v>205</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>175</v>
+        <v>242</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" t="s">
+        <v>206</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J41" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="M41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3358,6 +3878,7 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="property-name" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325A644-3865-C342-8814-FD7A2FEC3DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF83E2-9697-244F-A912-8CA9EA46A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="500" windowWidth="52420" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8780" yWindow="500" windowWidth="65480" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="245">
   <si>
     <t>name</t>
   </si>
@@ -530,9 +530,6 @@
     <t>Chapter Number</t>
   </si>
   <si>
-    <t>Character Type</t>
-  </si>
-  <si>
     <t>Departement</t>
   </si>
   <si>
@@ -599,21 +596,12 @@
     <t>DateValue</t>
   </si>
   <si>
-    <t>hasCharacterTypeList</t>
-  </si>
-  <si>
-    <t>hlist: Character Type</t>
-  </si>
-  <si>
     <t>hasValue, schema:birthDate</t>
   </si>
   <si>
     <t>hasValue, schema:pagination</t>
   </si>
   <si>
-    <t>hasValue, schema:character</t>
-  </si>
-  <si>
     <t>hasValue, schema:copyrightHolder</t>
   </si>
   <si>
@@ -644,9 +632,6 @@
     <t>Numéro de chapitre</t>
   </si>
   <si>
-    <t>Type de personnage</t>
-  </si>
-  <si>
     <t>Droits d'auteur</t>
   </si>
   <si>
@@ -752,9 +737,6 @@
     <t>Numero del capitolo</t>
   </si>
   <si>
-    <t>Tipo di personaggio</t>
-  </si>
-  <si>
     <t>Diritti dell'autore</t>
   </si>
   <si>
@@ -855,9 +837,6 @@
   </si>
   <si>
     <t>Kapitel Nummer</t>
-  </si>
-  <si>
-    <t>Zeichen-Typ</t>
   </si>
   <si>
     <t>Urheberrecht</t>
@@ -1296,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q943"/>
+  <dimension ref="A1:Q942"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1379,33 +1358,33 @@
         <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>79</v>
@@ -1421,28 +1400,28 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>34</v>
@@ -1454,275 +1433,273 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>79</v>
+        <v>20</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>180</v>
+        <v>208</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" t="s">
-        <v>180</v>
+        <v>208</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>175</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1737,34 +1714,34 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>17</v>
@@ -1773,159 +1750,160 @@
         <v>21</v>
       </c>
       <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
+        <v>179</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="M12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1933,608 +1911,608 @@
       <c r="N15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
+      <c r="A16" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>174</v>
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>174</v>
+        <v>216</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>67</v>
+      <c r="A27" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
-      </c>
-      <c r="L27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" t="s">
-        <v>232</v>
-      </c>
-      <c r="I28" t="s">
-        <v>161</v>
-      </c>
-      <c r="J28" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" t="s">
-        <v>233</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>117</v>
+      <c r="M29" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>39</v>
@@ -2543,117 +2521,117 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>249</v>
+      <c r="A31" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>39</v>
@@ -2663,37 +2641,37 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>39</v>
@@ -2703,280 +2681,241 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>63</v>
+      <c r="A36" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>240</v>
+      <c r="A37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" t="s">
-        <v>240</v>
+        <v>198</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="I37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>244</v>
+        <v>55</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>244</v>
+        <v>199</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" t="s">
+        <v>234</v>
       </c>
       <c r="I38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J38" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" t="s">
-        <v>171</v>
+        <v>236</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
-      </c>
-      <c r="I40" t="s">
-        <v>171</v>
+        <v>236</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="J40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
-        <v>243</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J41" t="s">
-        <v>207</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3878,7 +3817,6 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="property-name" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF83E2-9697-244F-A912-8CA9EA46A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58CD28-AE1C-7347-9CC7-FF2F9ECF88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="500" windowWidth="65480" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="32940" yWindow="500" windowWidth="41320" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,11 +960,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1050,13 +1057,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1279,12 +1287,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
@@ -2797,7 +2805,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="3" t="s">

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58CD28-AE1C-7347-9CC7-FF2F9ECF88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7373A-90A2-604B-B91F-DC4E910D6E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="32940" yWindow="500" windowWidth="41320" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="46640" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="244">
   <si>
     <t>name</t>
   </si>
@@ -545,15 +545,6 @@
     <t>:Location</t>
   </si>
   <si>
-    <t>:Butler</t>
-  </si>
-  <si>
-    <t>:AnimalFriend</t>
-  </si>
-  <si>
-    <t>:AliceCharacter</t>
-  </si>
-  <si>
     <t>hlist: Gender</t>
   </si>
   <si>
@@ -954,17 +945,30 @@
   </si>
   <si>
     <t>hlist: Fairytale Location</t>
+  </si>
+  <si>
+    <t>:AliceInWonderlandCharacter</t>
+  </si>
+  <si>
+    <t>:Character</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,13 +1061,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1287,7 +1292,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1366,33 +1371,33 @@
         <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>79</v>
@@ -1408,28 +1413,28 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>34</v>
@@ -1447,28 +1452,28 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>17</v>
@@ -1487,31 +1492,31 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>79</v>
@@ -1520,7 +1525,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>103</v>
@@ -1529,10 +1534,10 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>103</v>
@@ -1541,10 +1546,10 @@
         <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
@@ -1556,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -1568,28 +1573,28 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>17</v>
@@ -1602,31 +1607,31 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
@@ -1638,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -1650,25 +1655,25 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1689,25 +1694,25 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1728,25 +1733,25 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>28</v>
@@ -1768,28 +1773,28 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>19</v>
@@ -1798,7 +1803,7 @@
         <v>20</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P12" s="3"/>
     </row>
@@ -1871,7 +1876,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>17</v>
@@ -1890,25 +1895,25 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>30</v>
@@ -1924,34 +1929,34 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>19</v>
@@ -1960,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1976,10 +1981,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>49</v>
@@ -1988,10 +1993,10 @@
         <v>49</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>16</v>
@@ -2012,34 +2017,34 @@
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -2051,25 +2056,25 @@
         <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>22</v>
@@ -2091,25 +2096,25 @@
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>16</v>
@@ -2124,31 +2129,31 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -2160,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2173,28 +2178,28 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>34</v>
@@ -2207,31 +2212,31 @@
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>16</v>
@@ -2246,16 +2251,16 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
@@ -2264,10 +2269,10 @@
         <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
         <v>88</v>
@@ -2282,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2295,25 +2300,25 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
@@ -2335,28 +2340,28 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>25</v>
@@ -2369,34 +2374,34 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>19</v>
@@ -2405,7 +2410,7 @@
         <v>20</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P27" s="5"/>
     </row>
@@ -2417,67 +2422,67 @@
         <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>44</v>
@@ -2490,34 +2495,34 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>38</v>
@@ -2536,31 +2541,31 @@
         <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>110</v>
+      <c r="M31" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>39</v>
@@ -2575,25 +2580,25 @@
         <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>40</v>
@@ -2615,31 +2620,31 @@
         <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>39</v>
@@ -2655,25 +2660,25 @@
         <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>40</v>
@@ -2695,31 +2700,31 @@
         <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>108</v>
+      <c r="M35" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>39</v>
@@ -2734,25 +2739,25 @@
         <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>40</v>
@@ -2771,28 +2776,28 @@
         <v>104</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="H37" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>40</v>
@@ -2812,25 +2817,25 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>98</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>40</v>
@@ -2852,25 +2857,25 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>40</v>
@@ -2891,25 +2896,25 @@
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>40</v>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7373A-90A2-604B-B91F-DC4E910D6E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDDE9A-3168-E34A-B019-ECDD624CAE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="46640" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20100" yWindow="500" windowWidth="46640" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="254">
   <si>
     <t>name</t>
   </si>
@@ -356,9 +356,6 @@
     <t>:AnimalCharacter</t>
   </si>
   <si>
-    <t>:ImageAnimal</t>
-  </si>
-  <si>
     <t>Geoname</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>linkToAnimalCharacterID</t>
   </si>
   <si>
-    <t>linkToImageID</t>
-  </si>
-  <si>
     <t>hasFirstName</t>
   </si>
   <si>
@@ -951,17 +945,60 @@
   </si>
   <si>
     <t>:Character</t>
+  </si>
+  <si>
+    <t>:ImageHuman</t>
+  </si>
+  <si>
+    <t>linkToAliceImageID</t>
+  </si>
+  <si>
+    <t>Link to Image Character</t>
+  </si>
+  <si>
+    <t>linkToImageCharacterID</t>
+  </si>
+  <si>
+    <t>Link to Image Alice</t>
+  </si>
+  <si>
+    <t>Link zum Bild Alice</t>
+  </si>
+  <si>
+    <t>Link zum Bild Charakter</t>
+  </si>
+  <si>
+    <t>Lien vers l'image du personnage</t>
+  </si>
+  <si>
+    <t>Collegamento all'immagine dal personaggio</t>
+  </si>
+  <si>
+    <t>Collegamento all'immagine di Alice</t>
+  </si>
+  <si>
+    <t>Lien vers l'image d'Alice</t>
+  </si>
+  <si>
+    <t>:ImageWonderlandCharacter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1061,13 +1098,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,7 +1330,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1365,76 +1403,76 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>34</v>
@@ -1446,34 +1484,34 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>17</v>
@@ -1486,70 +1524,70 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
@@ -1561,40 +1599,40 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>17</v>
@@ -1607,31 +1645,31 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
@@ -1643,37 +1681,37 @@
         <v>20</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1688,31 +1726,31 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1727,31 +1765,31 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>28</v>
@@ -1767,34 +1805,34 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>19</v>
@@ -1803,53 +1841,53 @@
         <v>20</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>31</v>
@@ -1876,7 +1914,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>17</v>
@@ -1889,31 +1927,31 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>30</v>
@@ -1929,34 +1967,34 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>19</v>
@@ -1965,38 +2003,38 @@
         <v>20</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>16</v>
@@ -2011,70 +2049,70 @@
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>22</v>
@@ -2090,31 +2128,31 @@
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>16</v>
@@ -2129,31 +2167,31 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -2165,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2178,28 +2216,28 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>34</v>
@@ -2212,31 +2250,31 @@
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>16</v>
@@ -2251,31 +2289,31 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>16</v>
@@ -2287,38 +2325,38 @@
         <v>20</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>16</v>
@@ -2334,34 +2372,34 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>25</v>
@@ -2374,34 +2412,34 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>19</v>
@@ -2410,79 +2448,79 @@
         <v>20</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>44</v>
@@ -2495,34 +2533,34 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>38</v>
@@ -2535,37 +2573,37 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>242</v>
+      <c r="M31" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>39</v>
@@ -2574,31 +2612,31 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>40</v>
@@ -2614,31 +2652,31 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>40</v>
@@ -2654,31 +2692,31 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>40</v>
@@ -2694,37 +2732,37 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="10" t="s">
-        <v>243</v>
+      <c r="M35" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>39</v>
@@ -2736,28 +2774,28 @@
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>40</v>
@@ -2773,75 +2811,75 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" t="s">
-        <v>196</v>
+      <c r="A38" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="3" t="s">
-        <v>45</v>
+      <c r="M38" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>39</v>
@@ -2851,37 +2889,37 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>39</v>
@@ -2890,31 +2928,31 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>40</v>
@@ -2928,7 +2966,44 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDDE9A-3168-E34A-B019-ECDD624CAE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16278E49-0222-C943-9C5B-07FD2C4AC2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="500" windowWidth="46640" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="61960" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,16 +101,61 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAAA4C1L8FY
-Johannes Nussbaum    (2023-08-29 13:44:06)
-one language mandatory
-Label of the property that will be displayed in DSP-APP. Should be rather short.</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAA4C1L8FY
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Johannes Nussbaum    (2023-08-29 13:44:06)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">one language mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Label of the property that will be displayed in DSP-APP. Should be rather short.</t>
         </r>
       </text>
     </comment>
@@ -219,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="193">
   <si>
     <t>name</t>
   </si>
@@ -296,33 +341,12 @@
     <t>Colorpicker</t>
   </si>
   <si>
-    <t>DecimalValue</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>hasValue, schema:givenName</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>hasValue, schema:familyName</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>hasSeqnum</t>
   </si>
   <si>
-    <t>Page Number</t>
-  </si>
-  <si>
     <t>IntValue</t>
   </si>
   <si>
@@ -335,9 +359,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>:Fairytale</t>
-  </si>
-  <si>
     <t>Searchbox</t>
   </si>
   <si>
@@ -350,12 +371,6 @@
     <t>:Video</t>
   </si>
   <si>
-    <t>linkToFairytale</t>
-  </si>
-  <si>
-    <t>:AnimalCharacter</t>
-  </si>
-  <si>
     <t>Geoname</t>
   </si>
   <si>
@@ -380,54 +395,15 @@
     <t>hasChapterNumber</t>
   </si>
   <si>
-    <t>linkToAnimalCharacterID</t>
-  </si>
-  <si>
-    <t>hasFirstName</t>
-  </si>
-  <si>
-    <t>hasLastName</t>
-  </si>
-  <si>
-    <t>linkToAliceCharacterID</t>
-  </si>
-  <si>
     <t>hasQuote</t>
   </si>
   <si>
-    <t>hasPet</t>
-  </si>
-  <si>
-    <t>hasFavoriteCake</t>
-  </si>
-  <si>
-    <t>linkToAnimalFriendID</t>
-  </si>
-  <si>
-    <t>linkToButlerID</t>
-  </si>
-  <si>
-    <t>hasPetColor</t>
-  </si>
-  <si>
     <t>linkToAudioID</t>
   </si>
   <si>
     <t>linkToVideoID</t>
   </si>
   <si>
-    <t>hasWeight</t>
-  </si>
-  <si>
-    <t>hasGenderList</t>
-  </si>
-  <si>
-    <t>isNeutered</t>
-  </si>
-  <si>
-    <t>hasBirthday</t>
-  </si>
-  <si>
     <t>hasID</t>
   </si>
   <si>
@@ -455,105 +431,30 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Education Grade</t>
-  </si>
-  <si>
-    <t>Favorite Cake</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Pet</t>
-  </si>
-  <si>
-    <t>Pet Color</t>
-  </si>
-  <si>
     <t>Quote</t>
   </si>
   <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>Specie</t>
-  </si>
-  <si>
     <t>Time Stamp</t>
   </si>
   <si>
     <t>Wonderland Location</t>
   </si>
   <si>
-    <t>Neutered</t>
-  </si>
-  <si>
-    <t>Part Of</t>
-  </si>
-  <si>
-    <t>Link to Alice Character</t>
-  </si>
-  <si>
-    <t>Link to Animal Character</t>
-  </si>
-  <si>
-    <t>Link to Animal Friend</t>
-  </si>
-  <si>
-    <t>Link to Audio</t>
-  </si>
-  <si>
-    <t>Link to Butler</t>
-  </si>
-  <si>
-    <t>Link to Image</t>
-  </si>
-  <si>
-    <t>Link to Location</t>
-  </si>
-  <si>
-    <t>Link to Video</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
     <t>Chapter Number</t>
   </si>
   <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>linkToFlyerID</t>
-  </si>
-  <si>
-    <t>Link to Fairytale</t>
-  </si>
-  <si>
-    <t>:Flyer</t>
-  </si>
-  <si>
     <t>:Location</t>
   </si>
   <si>
-    <t>hlist: Gender</t>
-  </si>
-  <si>
     <t>hlist: License</t>
   </si>
   <si>
     <t>hlist: Role</t>
   </si>
   <si>
-    <t>hlist: Specie</t>
-  </si>
-  <si>
-    <t>hasSpecieList</t>
-  </si>
-  <si>
     <t>BooleanValue</t>
   </si>
   <si>
@@ -563,39 +464,15 @@
     <t>hasRoleList</t>
   </si>
   <si>
-    <t>hasShortName</t>
-  </si>
-  <si>
-    <t>hasEducationGradeList</t>
-  </si>
-  <si>
-    <t>hasDepartementList</t>
-  </si>
-  <si>
-    <t>hlist: Departement</t>
-  </si>
-  <si>
-    <t>hlist: Education Grade</t>
-  </si>
-  <si>
     <t>DateValue</t>
   </si>
   <si>
-    <t>hasValue, schema:birthDate</t>
-  </si>
-  <si>
     <t>hasValue, schema:pagination</t>
   </si>
   <si>
     <t>hasValue, schema:copyrightHolder</t>
   </si>
   <si>
-    <t>hasValue, schema:weight</t>
-  </si>
-  <si>
-    <t>hasValue, schema:gender</t>
-  </si>
-  <si>
     <t>hasValue, schema:license</t>
   </si>
   <si>
@@ -605,321 +482,66 @@
     <t>isPartOf, schema:isPartOf</t>
   </si>
   <si>
-    <t>seqnum, schema:numberOfPages</t>
-  </si>
-  <si>
     <t>hasValue, schema:description</t>
   </si>
   <si>
-    <t>Anniversaire</t>
-  </si>
-  <si>
     <t>Numéro de chapitre</t>
   </si>
   <si>
     <t>Droits d'auteur</t>
   </si>
   <si>
-    <t>Date de naissance</t>
-  </si>
-  <si>
-    <t>Département</t>
-  </si>
-  <si>
-    <t>Niveau d'éducation</t>
-  </si>
-  <si>
-    <t>Gâteau préféré</t>
-  </si>
-  <si>
-    <t>Nom du fichier</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Nom de famille</t>
-  </si>
-  <si>
     <t>Licence</t>
   </si>
   <si>
-    <t>Animal de compagnie</t>
-  </si>
-  <si>
-    <t>Couleur de l'animal</t>
-  </si>
-  <si>
     <t>Citation</t>
   </si>
   <si>
     <t>Rôle</t>
   </si>
   <si>
-    <t>Numéro de page</t>
-  </si>
-  <si>
-    <t>Nom court</t>
-  </si>
-  <si>
-    <t>Espèce</t>
-  </si>
-  <si>
     <t>Horodatage</t>
   </si>
   <si>
-    <t>Poids</t>
-  </si>
-  <si>
-    <t>Lieu du Pays des Merveilles</t>
-  </si>
-  <si>
-    <t>Partie de</t>
-  </si>
-  <si>
-    <t>Lien vers le personnage d'Alice</t>
-  </si>
-  <si>
-    <t>Lien vers le personnage animal</t>
-  </si>
-  <si>
-    <t>Lien vers l'ami animal</t>
-  </si>
-  <si>
-    <t>Lien vers Audio</t>
-  </si>
-  <si>
-    <t>Lien vers majordome</t>
-  </si>
-  <si>
-    <t>Lien vers le conte de fées</t>
-  </si>
-  <si>
-    <t>Lien vers la fiche d'information</t>
-  </si>
-  <si>
-    <t>Lien vers l'image</t>
-  </si>
-  <si>
-    <t>Lien vers le lieu</t>
-  </si>
-  <si>
-    <t>Link to Information Sheet</t>
-  </si>
-  <si>
-    <t>Lien vers la vidéo</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>Compleanno</t>
-  </si>
-  <si>
     <t>Numero del capitolo</t>
   </si>
   <si>
-    <t>Diritti dell'autore</t>
-  </si>
-  <si>
-    <t>Data di nascita</t>
-  </si>
-  <si>
-    <t>Dipartimento</t>
-  </si>
-  <si>
-    <t>Livello di istruzione</t>
-  </si>
-  <si>
-    <t>Torta preferita</t>
-  </si>
-  <si>
     <t>Nome del file</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Genere</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>Licenza</t>
   </si>
   <si>
-    <t>Animale domestico</t>
-  </si>
-  <si>
-    <t>Colore dell'animale</t>
-  </si>
-  <si>
-    <t>Citazione</t>
-  </si>
-  <si>
     <t>Ruolo</t>
   </si>
   <si>
-    <t>Numero di pagina</t>
-  </si>
-  <si>
-    <t>Nome breve</t>
-  </si>
-  <si>
-    <t>Data e ora</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>Posizione nel paese delle meraviglie</t>
-  </si>
-  <si>
-    <t>Parte di</t>
-  </si>
-  <si>
-    <t>Collegamento al personaggio di Alice</t>
-  </si>
-  <si>
-    <t>Collegamento al personaggio animale</t>
-  </si>
-  <si>
-    <t>Collegamento all'amico animale</t>
-  </si>
-  <si>
-    <t>Collegamento all'audio</t>
-  </si>
-  <si>
-    <t>Collegamento al maggiordomo</t>
-  </si>
-  <si>
-    <t>Collegamento alla fiaba</t>
-  </si>
-  <si>
-    <t>Collegamento alla scheda informativa</t>
-  </si>
-  <si>
-    <t>Collegamento all'immagine</t>
-  </si>
-  <si>
-    <t>Collegamento alla posizione</t>
-  </si>
-  <si>
-    <t>Collegamento al video</t>
-  </si>
-  <si>
-    <t>Stérilisé</t>
-  </si>
-  <si>
-    <t>Sterilizzato</t>
-  </si>
-  <si>
-    <t>Geburtstag</t>
-  </si>
-  <si>
     <t>Kapitel Nummer</t>
   </si>
   <si>
     <t>Urheberrecht</t>
   </si>
   <si>
-    <t>Datum</t>
-  </si>
-  <si>
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>Bildungsgrad</t>
-  </si>
-  <si>
-    <t>Lieblingskuchen</t>
-  </si>
-  <si>
-    <t>Name der Datei</t>
-  </si>
-  <si>
-    <t>Vorname</t>
-  </si>
-  <si>
-    <t>Geschlecht</t>
-  </si>
-  <si>
-    <t>Nachname</t>
-  </si>
-  <si>
     <t>Lizenz</t>
   </si>
   <si>
-    <t>Haustier</t>
-  </si>
-  <si>
-    <t>Farbe des Tieres</t>
-  </si>
-  <si>
     <t>Angebot</t>
   </si>
   <si>
     <t>Rolle</t>
   </si>
   <si>
-    <t>Seitenzahl</t>
-  </si>
-  <si>
-    <t>Kurzer Name</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
     <t>Zeitstempel</t>
   </si>
   <si>
-    <t>Gewicht</t>
-  </si>
-  <si>
-    <t>Wunderland Standort</t>
-  </si>
-  <si>
-    <t>Kastriert</t>
-  </si>
-  <si>
-    <t>Teil von</t>
-  </si>
-  <si>
-    <t>Link zu Alice Charakter</t>
-  </si>
-  <si>
-    <t>Link zum Tiercharakter</t>
-  </si>
-  <si>
-    <t>Link zum Tierfreund</t>
-  </si>
-  <si>
-    <t>Link zu Audio</t>
-  </si>
-  <si>
-    <t>Link zu Butler</t>
-  </si>
-  <si>
-    <t>Link zum Märchen</t>
-  </si>
-  <si>
-    <t>Link zum Bild</t>
-  </si>
-  <si>
-    <t>Link zum Standort</t>
-  </si>
-  <si>
-    <t>Link zum Video</t>
-  </si>
-  <si>
-    <t>Link zum Infoblatt</t>
-  </si>
-  <si>
     <t>hasValue, schema:location</t>
   </si>
   <si>
@@ -929,76 +551,309 @@
     <t>hasLicenseList</t>
   </si>
   <si>
-    <t>isPartOfAnimalCharacterID</t>
-  </si>
-  <si>
-    <t>isPartOfFairytaleID</t>
-  </si>
-  <si>
     <t>hasWonderlandLocationList</t>
   </si>
   <si>
-    <t>hlist: Fairytale Location</t>
-  </si>
-  <si>
-    <t>:AliceInWonderlandCharacter</t>
-  </si>
-  <si>
     <t>:Character</t>
   </si>
   <si>
-    <t>:ImageHuman</t>
-  </si>
-  <si>
-    <t>linkToAliceImageID</t>
-  </si>
-  <si>
-    <t>Link to Image Character</t>
-  </si>
-  <si>
-    <t>linkToImageCharacterID</t>
-  </si>
-  <si>
-    <t>Link to Image Alice</t>
-  </si>
-  <si>
-    <t>Link zum Bild Alice</t>
-  </si>
-  <si>
-    <t>Link zum Bild Charakter</t>
-  </si>
-  <si>
-    <t>Lien vers l'image du personnage</t>
-  </si>
-  <si>
-    <t>Collegamento all'immagine dal personaggio</t>
-  </si>
-  <si>
-    <t>Collegamento all'immagine di Alice</t>
-  </si>
-  <si>
-    <t>Lien vers l'image d'Alice</t>
-  </si>
-  <si>
-    <t>:ImageWonderlandCharacter</t>
+    <t>linkToBookChapterID</t>
+  </si>
+  <si>
+    <t>linkToImageID</t>
+  </si>
+  <si>
+    <t>linkToCharacterID</t>
+  </si>
+  <si>
+    <t>hasColour</t>
+  </si>
+  <si>
+    <t>hasGuestAmount</t>
+  </si>
+  <si>
+    <t>hasAdventureTypeList</t>
+  </si>
+  <si>
+    <t>isDangerous</t>
+  </si>
+  <si>
+    <t>linkToCharacterProtagonistID</t>
+  </si>
+  <si>
+    <t>linkToCharacterAntagonistID</t>
+  </si>
+  <si>
+    <t>isPartOfCharacterID</t>
+  </si>
+  <si>
+    <t>hlist: Adventure type</t>
+  </si>
+  <si>
+    <t>Adventure Type</t>
+  </si>
+  <si>
+    <t>Type d'aventure</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Publication Date</t>
+  </si>
+  <si>
+    <t>Amout of Guests</t>
+  </si>
+  <si>
+    <t>Seqnum</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>Part of Character</t>
+  </si>
+  <si>
+    <t>linked Audio</t>
+  </si>
+  <si>
+    <t>Book Chapters</t>
+  </si>
+  <si>
+    <t>Antagonist(s)</t>
+  </si>
+  <si>
+    <t>Protagonist(s)</t>
+  </si>
+  <si>
+    <t>linked Character(s)</t>
+  </si>
+  <si>
+    <t>linked Image</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>linked Video</t>
+  </si>
+  <si>
+    <t>Tipo di avventura</t>
+  </si>
+  <si>
+    <t>Colore</t>
+  </si>
+  <si>
+    <t>Data di pubblicazione</t>
+  </si>
+  <si>
+    <t>Numero di ospiti</t>
+  </si>
+  <si>
+    <t>Posizione nel Paese delle Meraviglie</t>
+  </si>
+  <si>
+    <t>Pericoloso</t>
+  </si>
+  <si>
+    <t>Capitoli del libro</t>
+  </si>
+  <si>
+    <t>Antagonista/i</t>
+  </si>
+  <si>
+    <t>Protagonista/i</t>
+  </si>
+  <si>
+    <t>Immagine collegata</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>Abenteuer-Typ</t>
+  </si>
+  <si>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>Datum der Veröffentlichung</t>
+  </si>
+  <si>
+    <t>Anzahl der Gäste</t>
+  </si>
+  <si>
+    <t>Ort im Wunderland</t>
+  </si>
+  <si>
+    <t>Gefährlich</t>
+  </si>
+  <si>
+    <t>Teil des Charakters</t>
+  </si>
+  <si>
+    <t>Verknüpftes Audio</t>
+  </si>
+  <si>
+    <t>Buch-Kapitel</t>
+  </si>
+  <si>
+    <t>Antagonist(en)</t>
+  </si>
+  <si>
+    <t>verlinkte(r) Charakter(e)</t>
+  </si>
+  <si>
+    <t>Protagonist(en)</t>
+  </si>
+  <si>
+    <t>verlinktes Bild</t>
+  </si>
+  <si>
+    <t>Standort</t>
+  </si>
+  <si>
+    <t>verlinktes Video</t>
+  </si>
+  <si>
+    <t>Couleur</t>
+  </si>
+  <si>
+    <t>Date de publication</t>
+  </si>
+  <si>
+    <t>Nombre d'invités</t>
+  </si>
+  <si>
+    <t>Emplacement du pays des merveilles</t>
+  </si>
+  <si>
+    <t>Dangereux</t>
+  </si>
+  <si>
+    <t>Audio lié</t>
+  </si>
+  <si>
+    <t>Chapitres du livre</t>
+  </si>
+  <si>
+    <t>Antagoniste(s)</t>
+  </si>
+  <si>
+    <t>Protagoniste(s)</t>
+  </si>
+  <si>
+    <t>Image liée</t>
+  </si>
+  <si>
+    <t>Emplacement</t>
+  </si>
+  <si>
+    <t>Vidéo liée</t>
+  </si>
+  <si>
+    <t>Preventivo</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Audio correlato</t>
+  </si>
+  <si>
+    <t>Personaggio/i correlato/i</t>
+  </si>
+  <si>
+    <t>Video correlato</t>
+  </si>
+  <si>
+    <t>Dateiname</t>
+  </si>
+  <si>
+    <t>Nom de fichier</t>
+  </si>
+  <si>
+    <t>Appartient au Personnage</t>
+  </si>
+  <si>
+    <t>Personnage(s) lié(s)</t>
+  </si>
+  <si>
+    <t>Nome del sito</t>
+  </si>
+  <si>
+    <t>Appartiene al personaggio</t>
+  </si>
+  <si>
+    <t>hasAbstract</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Zusammenfassung</t>
+  </si>
+  <si>
+    <t>Résumé</t>
+  </si>
+  <si>
+    <t>Sintesi</t>
+  </si>
+  <si>
+    <t>hasValue, schema:abstract</t>
+  </si>
+  <si>
+    <t>hasAuthor</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Autore</t>
+  </si>
+  <si>
+    <t>hasValue, foaf:person, schema:author</t>
+  </si>
+  <si>
+    <t>hasValue, schema:datePublished</t>
+  </si>
+  <si>
+    <t>hasValue, schema:name</t>
+  </si>
+  <si>
+    <t>hasValue, schema: spokenByCharacter</t>
+  </si>
+  <si>
+    <t>seqnum</t>
+  </si>
+  <si>
+    <t>hasValue, schema:dateCreated</t>
+  </si>
+  <si>
+    <t>:BookChapter</t>
+  </si>
+  <si>
+    <t>:Image</t>
+  </si>
+  <si>
+    <t>hlist: Wonderland Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1098,19 +953,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,26 +1185,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q942"/>
+  <dimension ref="A1:Q924"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.1640625" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="22.83203125" customWidth="1"/>
@@ -1402,355 +1262,349 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
-        <v>120</v>
+      <c r="A2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1"/>
+        <v>18</v>
+      </c>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>100</v>
+      <c r="A3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>100</v>
+        <v>124</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="A4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
+      <c r="A5" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>101</v>
+      <c r="A6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
+      <c r="A8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>78</v>
+        <v>126</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>16</v>
+        <v>126</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>59</v>
+      <c r="A9" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
+        <v>87</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" t="s">
-        <v>171</v>
+        <v>87</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>75</v>
+      <c r="A10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
+        <v>55</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" t="s">
-        <v>137</v>
+        <v>55</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1764,197 +1618,196 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>171</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>207</v>
-      </c>
-      <c r="I11" t="s">
-        <v>138</v>
+        <v>35</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>81</v>
+      <c r="A12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
+      <c r="A13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="M14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
+      <c r="A15" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" t="s">
-        <v>140</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" t="s">
-        <v>140</v>
+        <v>38</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1962,1055 +1815,619 @@
       <c r="N15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>235</v>
+      <c r="A16" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>125</v>
+        <v>162</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>72</v>
+      <c r="A17" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>164</v>
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>164</v>
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>16</v>
+        <v>113</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>62</v>
+      <c r="A19" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>22</v>
+        <v>163</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
+      <c r="A20" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+      <c r="A21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="M21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
+      <c r="A22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>33</v>
+        <v>172</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>215</v>
-      </c>
-      <c r="I22" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
+      <c r="A23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>85</v>
+        <v>164</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="H23" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>86</v>
+      <c r="A24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>86</v>
+        <v>130</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>87</v>
+      <c r="A25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>87</v>
+        <v>131</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
-        <v>219</v>
-      </c>
-      <c r="I26" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" t="s">
-        <v>184</v>
+      <c r="A26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>88</v>
+      <c r="A27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>88</v>
+        <v>132</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>185</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="P27" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" t="s">
-        <v>221</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>198</v>
+      <c r="A28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P28" s="3"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>90</v>
+      <c r="A29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>90</v>
+        <v>134</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J29" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>90</v>
+      <c r="A30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>90</v>
+        <v>166</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
-      </c>
-      <c r="I30" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" t="s">
-        <v>187</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I32" t="s">
-        <v>154</v>
-      </c>
-      <c r="J32" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>189</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="s">
-        <v>225</v>
-      </c>
-      <c r="I33" t="s">
-        <v>155</v>
-      </c>
-      <c r="J33" t="s">
-        <v>189</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I34" t="s">
-        <v>156</v>
-      </c>
-      <c r="J34" t="s">
-        <v>190</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I35" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" t="s">
-        <v>191</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" t="s">
-        <v>228</v>
-      </c>
-      <c r="I36" t="s">
-        <v>158</v>
-      </c>
-      <c r="J36" t="s">
-        <v>192</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" t="s">
-        <v>193</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" t="s">
-        <v>229</v>
-      </c>
-      <c r="I38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" t="s">
-        <v>194</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" t="s">
-        <v>195</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" t="s">
-        <v>230</v>
-      </c>
-      <c r="I39" t="s">
-        <v>161</v>
-      </c>
-      <c r="J39" t="s">
-        <v>195</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" t="s">
-        <v>231</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J40" t="s">
-        <v>196</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" t="s">
-        <v>229</v>
-      </c>
-      <c r="I41" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" t="s">
-        <v>194</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3887,25 +3304,12 @@
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q30">
+      <sortCondition ref="A1:A30"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="property-name" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" location="property-labels" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/data_model_files/daschland (daschland)/properties.xlsx
+++ b/data_model_files/daschland (daschland)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16278E49-0222-C943-9C5B-07FD2C4AC2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC20676-1743-0844-A076-CF97A48BE223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="61960" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="203">
   <si>
     <t>name</t>
   </si>
@@ -827,9 +827,6 @@
     <t>hasValue, schema:name</t>
   </si>
   <si>
-    <t>hasValue, schema: spokenByCharacter</t>
-  </si>
-  <si>
     <t>seqnum</t>
   </si>
   <si>
@@ -843,17 +840,71 @@
   </si>
   <si>
     <t>hlist: Wonderland Location</t>
+  </si>
+  <si>
+    <t>hasAlternativeDescription</t>
+  </si>
+  <si>
+    <t>Alternative Description</t>
+  </si>
+  <si>
+    <t>Alternative Beschreibung</t>
+  </si>
+  <si>
+    <t>Description alternative</t>
+  </si>
+  <si>
+    <t>Descrizione alternativa</t>
+  </si>
+  <si>
+    <t>hasUrl</t>
+  </si>
+  <si>
+    <t>More Information</t>
+  </si>
+  <si>
+    <t>Ulteriori informazioni</t>
+  </si>
+  <si>
+    <t>Mehr Informationen</t>
+  </si>
+  <si>
+    <t>Plus d'informations</t>
+  </si>
+  <si>
+    <t>UriValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,23 +1004,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,13 +1238,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
@@ -1262,7 +1311,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1302,7 +1351,7 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1343,7 +1392,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1381,7 +1430,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1420,7 +1469,7 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1460,7 +1509,7 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1500,7 +1549,7 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1539,7 +1588,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1579,7 +1628,7 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1618,7 +1667,7 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1658,7 +1707,7 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1696,7 +1745,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1736,7 +1785,7 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1779,7 +1828,7 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1818,7 +1867,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1845,8 +1894,8 @@
       <c r="J16" t="s">
         <v>162</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>187</v>
+      <c r="L16" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>17</v>
@@ -1857,7 +1906,7 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1900,7 +1949,7 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1928,7 +1977,7 @@
         <v>113</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>27</v>
@@ -1940,7 +1989,7 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1968,7 +2017,7 @@
         <v>163</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>28</v>
@@ -1980,7 +2029,7 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2017,12 +2066,12 @@
         <v>20</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2060,7 +2109,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -2100,7 +2149,7 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2140,7 +2189,7 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -2171,14 +2220,14 @@
         <v>32</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -2216,7 +2265,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -2256,7 +2305,7 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -2294,7 +2343,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -2325,14 +2374,14 @@
         <v>32</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2371,7 +2420,7 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2410,8 +2459,82 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" t="s">
+        <v>199</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
